--- a/03_pyramid/football_pyramid_2014_15.xlsx
+++ b/03_pyramid/football_pyramid_2014_15.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="9555" windowHeight="8445" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="9555" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -503,765 +504,969 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1">
+        <v>9</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24</v>
       </c>
       <c r="B9">
         <v>501</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>22</v>
       </c>
       <c r="B11">
         <v>601</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <f>C9-1</f>
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>21</v>
       </c>
       <c r="B12">
         <v>602</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <f>C9+1</f>
+        <v>10</v>
+      </c>
+      <c r="D12">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
       <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24</v>
       </c>
       <c r="B14">
         <v>701</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
         <v>7</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>23</v>
       </c>
       <c r="B15">
         <v>702</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
         <v>48</v>
       </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>24</v>
       </c>
       <c r="B16">
         <v>703</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>22</v>
       </c>
       <c r="B18">
         <v>801</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>6.5</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
         <v>13</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>901</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>902</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>910</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>22</v>
       </c>
       <c r="B19">
         <v>802</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>7.5</v>
+      </c>
+      <c r="D19">
         <v>8</v>
       </c>
-      <c r="D19">
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19">
         <v>902</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>903</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>910</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>911</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>22</v>
       </c>
       <c r="B20">
         <v>803</v>
       </c>
-      <c r="C20" t="s">
-        <v>9</v>
+      <c r="C20">
+        <v>8.5</v>
       </c>
       <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20">
         <v>903</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>904</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>911</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>912</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>905</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>22</v>
       </c>
       <c r="B21">
         <v>804</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>9.5</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
         <v>14</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>904</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>905</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>913</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>914</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24</v>
       </c>
       <c r="B22">
         <v>805</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22">
+        <v>10.5</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
         <v>15</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>905</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>908</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24</v>
       </c>
       <c r="B23">
         <v>806</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23">
+        <v>11.5</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
         <v>16</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>906</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>907</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>909</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
       <c r="B25">
         <v>901</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25">
+        <v>2.5</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
         <v>17</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>1001</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26">
         <v>902</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <v>3.5</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
         <v>18</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>1002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
       <c r="B27">
         <v>903</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27">
+        <v>5.5</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
         <v>19</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>1016</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>1017</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>1003</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>19</v>
       </c>
       <c r="B28">
         <v>904</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28">
+        <v>8.5</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
         <v>20</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>1004</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>1005</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20</v>
       </c>
       <c r="B29">
         <v>905</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <v>9.5</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
         <v>21</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>1006</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>17</v>
       </c>
       <c r="B30">
         <v>906</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30">
+        <v>13.5</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20</v>
       </c>
       <c r="B31">
         <v>907</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31">
+        <v>14.5</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
         <v>23</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>1007</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>17</v>
       </c>
       <c r="B32">
         <v>908</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32">
+        <v>12.5</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
         <v>24</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>1008</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>19</v>
       </c>
       <c r="B33">
         <v>909</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33">
+        <v>15.5</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
         <v>25</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>1009</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20</v>
       </c>
       <c r="B34">
         <v>910</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34">
+        <v>4.5</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
         <v>26</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>1010</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20</v>
       </c>
       <c r="B35">
         <v>911</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35">
+        <v>6.5</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
         <v>27</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>1011</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>21</v>
       </c>
       <c r="B36">
         <v>912</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36">
+        <v>7.5</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
         <v>28</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>1012</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>20</v>
       </c>
       <c r="B37">
         <v>913</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37">
+        <v>10.5</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
         <v>29</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <v>1013</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>19</v>
       </c>
       <c r="B38">
         <v>914</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38">
+        <v>11.5</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
         <v>30</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>1014</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>1015</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
       <c r="B40">
         <v>1001</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
       <c r="B41">
         <v>1002</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8</v>
       </c>
       <c r="B42">
         <v>1003</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>1004</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44">
         <v>1005</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>7</v>
       </c>
       <c r="B45">
         <v>1006</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>7</v>
       </c>
       <c r="B46">
         <v>1007</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46">
+        <v>16</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
       <c r="B47">
         <v>1008</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>1009</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48">
+        <v>17</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>9</v>
       </c>
       <c r="B49">
         <v>1010</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
       <c r="B50">
         <v>1011</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
       <c r="B51">
         <v>1012</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7</v>
       </c>
       <c r="B52">
         <v>1013</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
       <c r="B53">
         <v>1014</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
       <c r="B54">
         <v>1015</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>11</v>
       </c>
       <c r="B55">
         <v>1016</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>8</v>
       </c>
       <c r="B56">
         <v>1017</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F61">
-        <v>2</v>
-      </c>
-      <c r="G61">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F62">
-        <v>3</v>
-      </c>
-      <c r="G62">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F63">
-        <v>4</v>
-      </c>
-      <c r="G63">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F64">
-        <v>5</v>
-      </c>
-      <c r="G64">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F65">
-        <v>6</v>
-      </c>
-      <c r="G65">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F66">
-        <v>7</v>
-      </c>
-      <c r="G66">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F67">
-        <v>8</v>
-      </c>
-      <c r="G67">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F68">
-        <v>9</v>
-      </c>
-      <c r="G68">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F69">
-        <v>10</v>
-      </c>
-      <c r="G69">
-        <v>93</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="G47:I89">
-    <sortCondition ref="I89"/>
+  <sortState ref="I47:K89">
+    <sortCondition ref="K89"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1269,9 +1474,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C9:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
